--- a/skills.xlsx
+++ b/skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9907A792-9432-4D70-81A8-6B56970BD789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F9614-E406-4AFE-A5C0-4A16CD0331D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="0" windowWidth="13935" windowHeight="16200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hard skills" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="twarde" sheetId="3" r:id="rId3"/>
     <sheet name="miękkie" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>skill</t>
   </si>
@@ -61,18 +61,72 @@
   </si>
   <si>
     <t>Statistics</t>
+  </si>
+  <si>
+    <t>flexibility</t>
+  </si>
+  <si>
+    <t>copywriting</t>
+  </si>
+  <si>
+    <t>attention to details</t>
+  </si>
+  <si>
+    <t>project supervision</t>
+  </si>
+  <si>
+    <t>time management</t>
+  </si>
+  <si>
+    <t>umiejętność</t>
+  </si>
+  <si>
+    <t>poziom</t>
+  </si>
+  <si>
+    <t>tabele przestawne</t>
+  </si>
+  <si>
+    <t>statystyka</t>
+  </si>
+  <si>
+    <t>elastyczność</t>
+  </si>
+  <si>
+    <t>dbałość o szczegóły</t>
+  </si>
+  <si>
+    <t>nadzorowanie projektów</t>
+  </si>
+  <si>
+    <t>zarządzanie czasem</t>
+  </si>
+  <si>
+    <t>reszta</t>
+  </si>
+  <si>
+    <t>remaining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -378,65 +433,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>10-B2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>10-B3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>10-B4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>10-B5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>10-B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>10-B7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>10-B8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f>10-B9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>10-B10</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -446,36 +567,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882B5FDF-A676-4DC4-8FA1-E32492B35D7B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D66A62-1978-438F-AFDA-19373326B0F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>10-B2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">10-B3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB3E2C4-B725-4E0D-87F4-E6AC54B8064E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>